--- a/ResultadosArray.xlsx
+++ b/ResultadosArray.xlsx
@@ -30013,6 +30013,20 @@
         <v>5.36870952E8</v>
       </c>
     </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="B2139" t="n">
+        <v>0.016772249</v>
+      </c>
+      <c r="C2139" t="n">
+        <v>1.6772249E-5</v>
+      </c>
+      <c r="D2139" t="n">
+        <v>8040.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
